--- a/risultato/FASCIA C - BLUMARRONE-MARRONE.xlsx
+++ b/risultato/FASCIA C - BLUMARRONE-MARRONE.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>SIGNORILE</t>
+          <t>MARTINI</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>ELIA</t>
+          <t>MANUEL</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>MARTINI</t>
+          <t>SIGNORILE</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>MANUEL</t>
+          <t>ELIA</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>

--- a/risultato/FASCIA C - BLUMARRONE-MARRONE.xlsx
+++ b/risultato/FASCIA C - BLUMARRONE-MARRONE.xlsx
@@ -574,7 +574,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>SIGNORILE</t>
+          <t>BINOTTO</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>ELIA</t>
+          <t>GIOELE</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>BINOTTO</t>
+          <t>SIGNORILE</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>GIOELE</t>
+          <t>ELIA</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>

--- a/risultato/FASCIA C - BLUMARRONE-MARRONE.xlsx
+++ b/risultato/FASCIA C - BLUMARRONE-MARRONE.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>MARTINI</t>
+          <t>SIGNORILE</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>MANUEL</t>
+          <t>ELIA</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>SIGNORILE</t>
+          <t>MARTINI</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>ELIA</t>
+          <t>MANUEL</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
